--- a/test cases/Zoom/case 3/all_ip.xlsx
+++ b/test cases/Zoom/case 3/all_ip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\WebRTC_Testbench\test cases\Zoom\case 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68525F6B-3B6E-45CB-8245-AF615AB21682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493EB04-A8F2-45EE-A5B2-F8568E32EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="29">
   <si>
     <t>caller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <t>2407:30c0:100:724:8886:7410:8ab5:e18f</t>
+  </si>
+  <si>
+    <t>224.0.0.251</t>
+  </si>
+  <si>
+    <t>2407:30c0:100:721:5e0:a704:c939:7fcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -160,9 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,7 +470,7 @@
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -481,56 +491,124 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>62624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>65276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>59123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>59133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>59134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>59135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>59136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>59137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>59139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>59145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -540,47 +618,883 @@
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>59153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>59154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>59155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>59156</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>59186</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>61204</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>54117</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>62250</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>51006</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>51452</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>63343</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>53053</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>56167</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>57364</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>54885</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>53267</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2">
+        <v>56363</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>60992</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>57964</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2">
+        <v>55355</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>65197</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>55318</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2">
+        <v>57529</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2">
+        <v>63613</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>62322</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2">
+        <v>51921</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="2">
+        <v>54765</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="2">
+        <v>53429</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2">
+        <v>50915</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2">
+        <v>64772</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2">
+        <v>49779</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="2">
+        <v>52069</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="2">
+        <v>49836</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2">
+        <v>62701</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="2">
+        <v>53002</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="2">
+        <v>55021</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="2">
+        <v>55285</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="2">
+        <v>59594</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="2">
+        <v>59807</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="2">
+        <v>59816</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="2">
+        <v>59817</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2">
+        <v>59818</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="2">
+        <v>59819</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2">
+        <v>59164</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>59166</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>59167</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="2">
+        <v>59168</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>59177</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>59178</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>59180</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>59181</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>53053</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>57364</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2">
+        <v>60681</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="2">
+        <v>53080</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>53267</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="2">
+        <v>53319</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="2">
+        <v>60992</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="2">
+        <v>59198</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="2">
+        <v>54669</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="2">
+        <v>55355</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>51221</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="2">
+        <v>55318</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="2">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" s="2">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="2">
+        <v>59169</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="2">
+        <v>59170</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="2">
+        <v>59172</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="2">
+        <v>59121</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="2">
+        <v>59122</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="2">
+        <v>59126</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="2">
+        <v>59128</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="2">
+        <v>59129</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="2">
+        <v>59130</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="2">
+        <v>59146</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="2">
+        <v>59148</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="2">
+        <v>59149</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="2">
+        <v>59150</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="2">
+        <v>59595</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="2">
+        <v>59804</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="2">
+        <v>59808</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="2">
+        <v>59810</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="2">
+        <v>59811</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="2">
+        <v>59812</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="2">
+        <v>59814</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:H248" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:H248" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:H129">
+      <sortCondition ref="G1:G248"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
